--- a/pcmt-vaxprequal/all-profiles.xlsx
+++ b/pcmt-vaxprequal/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-01T08:33:29+00:00</t>
+    <t>2025-09-16T20:42:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -106,7 +106,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Kind</t>
